--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-races-count.xlsx
@@ -86,7 +86,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>39 ч. 8 мин. 56 сек.</t>
+    <t>39 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -95,7 +95,7 @@
     <t>Бауыржан80</t>
   </si>
   <si>
-    <t>94 ч. 2 мин. 47 сек.</t>
+    <t>94 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -113,7 +113,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>37 ч. 53 мин. 4 сек.</t>
+    <t>37 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -131,7 +131,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>30 ч. 7 мин. 1 сек.</t>
+    <t>30 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>37 ч. 1 мин. 46 сек.</t>
+    <t>37 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -149,7 +149,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>26 ч. 36 мин. 0 сек.</t>
+    <t>26 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -194,7 +194,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>27 ч. 51 мин. 0 сек.</t>
+    <t>27 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -212,7 +212,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 26 сек.</t>
+    <t>11 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -221,7 +221,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>33 ч. 27 мин. 6 сек.</t>
+    <t>33 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -239,7 +239,7 @@
     <t>Ильк</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 31 сек.</t>
+    <t>22 ч. 08 мин. 31 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -248,7 +248,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>22 ч. 18 мин. 3 сек.</t>
+    <t>22 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -311,7 +311,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 16 сек.</t>
+    <t>12 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>31–32</t>
@@ -335,7 +335,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 8 сек.</t>
+    <t>10 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -389,7 +389,7 @@
     <t>vlad200</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 44 сек.</t>
+    <t>31 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -416,7 +416,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>15 ч. 37 мин. 3 сек.</t>
+    <t>15 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -425,7 +425,7 @@
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 21 сек.</t>
+    <t>13 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -452,7 +452,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>14 ч. 29 мин. 9 сек.</t>
+    <t>14 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -461,7 +461,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>11 ч. 20 мин. 2 сек.</t>
+    <t>11 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -479,7 +479,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 12 сек.</t>
+    <t>14 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -488,7 +488,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -524,7 +524,7 @@
     <t>Oble</t>
   </si>
   <si>
-    <t>17 ч. 30 мин. 3 сек.</t>
+    <t>17 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -560,7 +560,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 14 сек.</t>
+    <t>16 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -635,7 +635,7 @@
     <t>R_E_S_E_T</t>
   </si>
   <si>
-    <t>14 ч. 37 мин. 4 сек.</t>
+    <t>14 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>68–69</t>
@@ -650,7 +650,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 11 мин. 1 сек.</t>
+    <t>13 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -659,7 +659,7 @@
     <t>1hatedfate</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 13 сек.</t>
+    <t>10 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -677,7 +677,7 @@
     <t>ogogo</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 51 сек.</t>
+    <t>13 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -695,7 +695,7 @@
     <t>xdg-</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 3 сек.</t>
+    <t>16 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -704,7 +704,7 @@
     <t>foggystyle</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -740,7 +740,7 @@
     <t>Abbill</t>
   </si>
   <si>
-    <t>14 ч. 18 мин. 5 сек.</t>
+    <t>14 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -767,7 +767,7 @@
     <t>Leu</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 14 сек.</t>
+    <t>10 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -809,13 +809,13 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 44 сек.</t>
+    <t>14 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
   </si>
   <si>
-    <t>14 ч. 46 мин. 7 сек.</t>
+    <t>14 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -833,7 +833,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>30 ч. 50 мин. 1 сек.</t>
+    <t>30 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>Voldik</t>
@@ -845,7 +845,7 @@
     <t>andrew-fam</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -863,7 +863,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 35 сек.</t>
+    <t>15 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -896,13 +896,13 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 1 сек.</t>
+    <t>10 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>Lelick</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>100–101</t>
@@ -911,7 +911,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 35 сек.</t>
+    <t>7 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>greysky</t>
@@ -926,7 +926,7 @@
     <t>SlavaSlava</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 4 сек.</t>
+    <t>11 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>Debugger</t>
@@ -977,7 +977,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 7 сек.</t>
+    <t>7 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>NodeJS</t>
@@ -998,7 +998,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 50 сек.</t>
+    <t>8 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1025,7 +1025,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>7 ч. 21 мин. 1 сек.</t>
+    <t>7 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>115–116</t>
@@ -1034,7 +1034,7 @@
     <t>Alex123451</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 17 сек.</t>
+    <t>7 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>HeLLios</t>
@@ -1091,7 +1091,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>10 ч. 40 мин. 6 сек.</t>
+    <t>10 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1151,13 +1151,13 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 26 сек.</t>
+    <t>7 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>serg3295</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 43 сек.</t>
+    <t>15 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1184,7 +1184,7 @@
     <t>aralov</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 50 сек.</t>
+    <t>15 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1193,7 +1193,7 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 24 сек.</t>
+    <t>11 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1202,7 +1202,7 @@
     <t>schamuil</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1211,7 +1211,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 11 сек.</t>
+    <t>7 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>137–139</t>
@@ -1268,7 +1268,7 @@
     <t>QuetzalcoatI</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 43 сек.</t>
+    <t>5 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>ДядяСаша</t>
@@ -1307,7 +1307,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 5 сек.</t>
+    <t>8 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1355,7 +1355,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 52 сек.</t>
+    <t>7 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1388,13 +1388,13 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>7 ч. 51 мин. 4 сек.</t>
+    <t>7 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>lehf</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 46 сек.</t>
+    <t>11 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1427,13 +1427,13 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 45 сек.</t>
+    <t>9 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>Lexanni</t>
   </si>
   <si>
-    <t>8 ч. 58 мин. 4 сек.</t>
+    <t>8 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>165</t>
@@ -1460,13 +1460,13 @@
     <t>Амирыч</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 26 сек.</t>
+    <t>8 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>Лапаягуара</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 53 сек.</t>
+    <t>9 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1475,7 +1475,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 5 сек.</t>
+    <t>5 ч. 08 мин. 05 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1538,7 +1538,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>igormsu</t>
@@ -1595,7 +1595,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 11 сек.</t>
+    <t>5 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1628,7 +1628,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 10 сек.</t>
+    <t>10 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>ТыГонишь</t>
@@ -1652,7 +1652,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 39 сек.</t>
+    <t>7 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>харцызяка</t>
@@ -1667,7 +1667,7 @@
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 14 сек.</t>
+    <t>8 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>vl7</t>
@@ -1679,7 +1679,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>196–198</t>
@@ -1688,13 +1688,13 @@
     <t>bolt25</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 44 сек.</t>
+    <t>19 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>LegalSoul</t>
@@ -1745,7 +1745,7 @@
     <t>младенец</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 1 сек.</t>
+    <t>7 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>205–206</t>
@@ -1760,7 +1760,7 @@
     <t>buzzy</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 5 сек.</t>
+    <t>3 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1787,7 +1787,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 59 сек.</t>
+    <t>4 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>USA_</t>
@@ -1802,7 +1802,7 @@
     <t>sad_robot</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 43 сек.</t>
+    <t>8 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>212–213</t>
@@ -1847,7 +1847,7 @@
     <t>Snash</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>Дибров</t>
@@ -1877,7 +1877,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 39 сек.</t>
+    <t>5 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>222–223</t>
@@ -1892,7 +1892,7 @@
     <t>denver14</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 8 сек.</t>
+    <t>7 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>224–225</t>
@@ -1901,7 +1901,7 @@
     <t>jodic2001</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>Deschain</t>
@@ -1940,7 +1940,7 @@
     <t>Batbara</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 53 сек.</t>
+    <t>6 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>230–231</t>
@@ -1955,7 +1955,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 1 сек.</t>
+    <t>7 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>232</t>
@@ -1964,7 +1964,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 6 сек.</t>
+    <t>7 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2000,7 +2000,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 14 сек.</t>
+    <t>4 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2027,7 +2027,7 @@
     <t>БоряБ</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 37 сек.</t>
+    <t>5 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2069,7 +2069,7 @@
     <t>mmc</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 9 сек.</t>
+    <t>7 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2078,7 +2078,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 9 сек.</t>
+    <t>5 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>246</t>
@@ -2144,13 +2144,13 @@
     <t>4iterok007</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>SlooN777</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 58 сек.</t>
+    <t>9 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>PhantomLancer</t>
@@ -2165,7 +2165,7 @@
     <t>Impressive92</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 4 сек.</t>
+    <t>5 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>nikolay51</t>
@@ -2204,7 +2204,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 5 сек.</t>
+    <t>3 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>Sid25</t>
@@ -2225,7 +2225,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 34 сек.</t>
+    <t>9 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2234,7 +2234,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 59 сек.</t>
+    <t>6 ч. 09 мин. 59 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2243,7 +2243,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2252,7 +2252,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 50 сек.</t>
+    <t>3 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2270,7 +2270,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 31 сек.</t>
+    <t>5 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2279,7 +2279,7 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>8 ч. 15 мин. 0 сек.</t>
+    <t>8 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2330,7 +2330,7 @@
     <t>trhlAHAHsfjJ</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>278</t>
@@ -2339,7 +2339,7 @@
     <t>vcvlsdfkv</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 9 сек.</t>
+    <t>4 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2348,7 +2348,7 @@
     <t>Easy88</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 30 сек.</t>
+    <t>5 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2366,19 +2366,19 @@
     <t>valerii12345</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 43 сек.</t>
+    <t>8 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>ddenis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 30 сек.</t>
+    <t>3 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>ChisloPi</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2402,7 +2402,7 @@
     <t>Хольман</t>
   </si>
   <si>
-    <t>6 ч. 52 мин. 3 сек.</t>
+    <t>6 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>287–288</t>
@@ -2417,7 +2417,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 22 сек.</t>
+    <t>4 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2435,7 +2435,7 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 50 сек.</t>
+    <t>4 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2444,7 +2444,7 @@
     <t>pijamka</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 49 сек.</t>
+    <t>4 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2462,7 +2462,7 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 6 сек.</t>
+    <t>3 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>294–295</t>
@@ -2471,7 +2471,7 @@
     <t>pairbit</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 2 сек.</t>
+    <t>4 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>Большой_Дрю</t>
@@ -2516,7 +2516,7 @@
     <t>sergeyburda</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 7 сек.</t>
+    <t>5 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>170000</t>
@@ -2531,7 +2531,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2549,7 +2549,7 @@
     <t>TypePracticeRu1</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 2 сек.</t>
+    <t>6 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>nosferatum</t>
@@ -2576,7 +2576,7 @@
     <t>fingeroo</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 8 сек.</t>
+    <t>3 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>COH1bAAAA</t>
@@ -2597,7 +2597,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 16 сек.</t>
+    <t>4 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>312–314</t>
@@ -2648,13 +2648,13 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>5 ч. 12 мин. 9 сек.</t>
+    <t>5 ч. 12 мин. 09 сек.</t>
   </si>
   <si>
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>320–321</t>
@@ -2684,7 +2684,7 @@
     <t>E_l_e_n_a</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 4 сек.</t>
+    <t>5 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>324–328</t>
@@ -2699,7 +2699,7 @@
     <t>EthelHallow</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>Эники</t>
@@ -2717,7 +2717,7 @@
     <t>Dj_Hard</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 44 сек.</t>
+    <t>3 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -2735,7 +2735,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 8 сек.</t>
+    <t>6 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -2768,7 +2768,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 16 сек.</t>
+    <t>6 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>335–336</t>
@@ -2840,7 +2840,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>345–346</t>
@@ -2873,7 +2873,7 @@
     <t>Ciaconne</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>349–350</t>
@@ -2912,13 +2912,13 @@
     <t>AlexFer</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 2 сек.</t>
+    <t>4 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>reemaind</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 43 сек.</t>
+    <t>4 ч. 05 мин. 43 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -2951,7 +2951,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 23 сек.</t>
+    <t>4 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>359–360</t>
@@ -2960,13 +2960,13 @@
     <t>rafaelll</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 3 сек.</t>
+    <t>3 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>361–363</t>
@@ -3008,7 +3008,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3017,7 +3017,7 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 23 сек.</t>
+    <t>4 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>368–369</t>
@@ -3026,13 +3026,13 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>3 ч. 32 мин. 8 сек.</t>
+    <t>3 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>anahata</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 8 сек.</t>
+    <t>3 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>370–373</t>
@@ -3041,7 +3041,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 48 сек.</t>
+    <t>3 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>Nowhereman42nd</t>
@@ -3086,13 +3086,13 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 22 сек.</t>
+    <t>5 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>Только_Киев</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 5 сек.</t>
+    <t>3 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>379–380</t>
@@ -3107,7 +3107,7 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 37 сек.</t>
+    <t>3 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>381–382</t>
@@ -3131,7 +3131,7 @@
     <t>Marrog</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 19 сек.</t>
+    <t>4 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>MAXIMUSX</t>
@@ -3173,7 +3173,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3218,7 +3218,7 @@
     <t>Leha-88-88</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 1 сек.</t>
+    <t>3 ч. 15 мин. 01 сек.</t>
   </si>
   <si>
     <t>395–396</t>
@@ -3260,7 +3260,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 2 сек.</t>
+    <t>3 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>401</t>
@@ -3314,19 +3314,19 @@
     <t>Opiyai</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>segalize</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 3 сек.</t>
+    <t>4 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>Берегиня</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 7 сек.</t>
+    <t>4 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>410–411</t>
@@ -3335,7 +3335,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>Goyden</t>
@@ -3356,13 +3356,13 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 2 сек.</t>
+    <t>3 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>natalishka</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 21 сек.</t>
+    <t>5 ч. 06 мин. 21 сек.</t>
   </si>
   <si>
     <t>415–416</t>
@@ -3386,7 +3386,7 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 2 сек.</t>
+    <t>2 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>-FORCE-</t>
@@ -3401,7 +3401,7 @@
     <t>patas_arriba</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 40 сек.</t>
+    <t>4 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3410,7 +3410,7 @@
     <t>lokidos</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 9 сек.</t>
+    <t>4 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>421–424</t>
@@ -3419,7 +3419,7 @@
     <t>vic0nt</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 6 сек.</t>
+    <t>3 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>mantilet</t>
@@ -3431,7 +3431,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 9 сек.</t>
+    <t>3 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>Скороход</t>
@@ -3518,7 +3518,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 22 сек.</t>
+    <t>2 ч. 00 мин. 22 сек.</t>
   </si>
   <si>
     <t>436</t>
@@ -3572,7 +3572,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 2 сек.</t>
+    <t>5 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>EvilMachine</t>
@@ -3602,7 +3602,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 53 сек.</t>
+    <t>3 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>447</t>
@@ -3662,7 +3662,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 4 сек.</t>
+    <t>2 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>Dorianleroy</t>
@@ -3683,7 +3683,7 @@
     <t>Locust</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>el-r</t>
@@ -3713,13 +3713,13 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 8 сек.</t>
+    <t>2 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Antonio_Zts</t>
@@ -3746,7 +3746,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 5 сек.</t>
+    <t>2 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -3770,7 +3770,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 0 сек.</t>
+    <t>2 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>470–474</t>
@@ -3797,7 +3797,7 @@
     <t>Zheka169</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 3 сек.</t>
+    <t>3 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>akinojes</t>
@@ -3848,7 +3848,7 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 0 сек.</t>
+    <t>3 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>Vk625</t>
@@ -3860,7 +3860,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -3974,13 +3974,13 @@
     <t>shishini38</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 9 сек.</t>
+    <t>4 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 47 сек.</t>
+    <t>2 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>500–501</t>
@@ -4037,7 +4037,7 @@
     <t>gornostay</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 6 сек.</t>
+    <t>2 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>Марафонец</t>
@@ -4052,7 +4052,7 @@
     <t>beniscook</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 42 сек.</t>
+    <t>3 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>Staffarda</t>
@@ -4061,7 +4061,7 @@
     <t>neus</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 50 сек.</t>
+    <t>2 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>aShark</t>
@@ -4109,13 +4109,13 @@
     <t>akuna1</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 25 сек.</t>
+    <t>3 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 9 сек.</t>
+    <t>2 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -4139,7 +4139,7 @@
     <t>fdsken</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>4eburaska</t>
@@ -4151,13 +4151,13 @@
     <t>gor2810</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 4 сек.</t>
+    <t>4 ч. 10 мин. 04 сек.</t>
   </si>
   <si>
     <t>ГДВ</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>EvilIL</t>
@@ -4169,7 +4169,7 @@
     <t>breaks</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 53 сек.</t>
+    <t>2 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>529–530</t>
@@ -4184,7 +4184,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 43 сек.</t>
+    <t>2 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>531–532</t>
@@ -4199,7 +4199,7 @@
     <t>maestro2809</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 2 сек.</t>
+    <t>5 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>533–535</t>
@@ -4238,7 +4238,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 6 сек.</t>
+    <t>2 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>adviser105</t>
@@ -4256,7 +4256,7 @@
     <t>Uncle_Sam</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>542–544</t>
@@ -4292,7 +4292,7 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>ma26pe</t>
@@ -4319,13 +4319,13 @@
     <t>Akmat</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 9 сек.</t>
+    <t>3 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>wwsector</t>
@@ -4355,7 +4355,7 @@
     <t>мимими</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>mcl</t>
@@ -4403,13 +4403,13 @@
     <t>никнэйм</t>
   </si>
   <si>
-    <t>5 ч. 32 мин. 7 сек.</t>
+    <t>5 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 3 сек.</t>
+    <t>3 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>565–570</t>
@@ -4418,7 +4418,7 @@
     <t>pa4loed</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 29 сек.</t>
+    <t>2 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>smbody</t>
@@ -4469,7 +4469,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 0 сек.</t>
+    <t>2 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>574–575</t>
@@ -4478,7 +4478,7 @@
     <t>Borkli</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 2 сек.</t>
+    <t>3 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>Mellow</t>
@@ -4502,7 +4502,7 @@
     <t>a_shir</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 33 сек.</t>
+    <t>2 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>ip_2112</t>
@@ -4514,7 +4514,7 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 29 сек.</t>
+    <t>2 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>581–586</t>
@@ -4553,7 +4553,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 0 сек.</t>
+    <t>2 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>587–592</t>
@@ -4580,7 +4580,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 1 сек.</t>
+    <t>2 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>Noob777</t>
@@ -4592,7 +4592,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 55 сек.</t>
+    <t>1 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>593–595</t>
@@ -4628,7 +4628,7 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 42 сек.</t>
+    <t>4 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>Aleksan9r</t>
@@ -4703,7 +4703,7 @@
     <t>IntusNox</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 41 сек.</t>
+    <t>2 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>stal</t>
@@ -4730,7 +4730,7 @@
     <t>1977</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 57 сек.</t>
+    <t>4 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>Антоний_</t>
@@ -4772,7 +4772,7 @@
     <t>sega1975</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 47 сек.</t>
+    <t>4 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>MarionWed</t>
@@ -4802,7 +4802,7 @@
     <t>НЮШКА-ХРЮШКА</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 58 сек.</t>
+    <t>2 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>Alehandro_86</t>
@@ -4820,7 +4820,7 @@
     <t>Infinit</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>628–633</t>
@@ -4859,7 +4859,7 @@
     <t>uniko</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>634–635</t>
@@ -4868,13 +4868,13 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 8 сек.</t>
+    <t>3 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>DeniV</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>636</t>
@@ -4925,7 +4925,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 21 сек.</t>
+    <t>2 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>dogs_life</t>
@@ -4937,7 +4937,7 @@
     <t>flake77</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 4 сек.</t>
+    <t>2 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>madig</t>
@@ -4955,7 +4955,7 @@
     <t>anuni</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
 </sst>
 </file>
